--- a/Sheet5输出数据.xlsx
+++ b/Sheet5输出数据.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,13 +469,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>6.557438490699804</v>
+        <v>1.778011632820987</v>
       </c>
       <c r="D2" t="n">
-        <v>2.755598860185273</v>
+        <v>1.605687340033957</v>
       </c>
     </row>
     <row r="3">
@@ -483,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1523164911520334</v>
+        <v>-0.1877365728175739</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8802375282065936</v>
+        <v>-0.06146593211030996</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1525177948329307</v>
+        <v>1.548674342163154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8799229455837603</v>
+        <v>1.44169677543363</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1523399765814715</v>
+        <v>0.002285753727486877</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8802008405065724</v>
+        <v>0.1333753658437251</v>
       </c>
     </row>
     <row r="6">
@@ -525,13 +525,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1524983354771106</v>
+        <v>0.8475574821520681</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8799533667724206</v>
+        <v>0.8987951798873182</v>
       </c>
     </row>
     <row r="7">
@@ -539,13 +539,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1524117748943248</v>
+        <v>-0.09600165655444115</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800886586858578</v>
+        <v>0.03385447309697473</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1525084006611555</v>
+        <v>-1.006798325166974</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8799376319832728</v>
+        <v>-1.048793272478393</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +567,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1526016713666379</v>
+        <v>-0.01081923431010348</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8797917914881742</v>
+        <v>0.1202556811083566</v>
       </c>
     </row>
     <row r="10">
@@ -581,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1524996775016499</v>
+        <v>0.1136781520470053</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8799512688387191</v>
+        <v>0.2431152656442776</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1524869282685264</v>
+        <v>0.1988605742913429</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8799711987345469</v>
+        <v>0.3249809627756042</v>
       </c>
     </row>
     <row r="12">
@@ -609,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1524782051090209</v>
+        <v>1.109657242903876</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8799848343681923</v>
+        <v>1.109807569068678</v>
       </c>
     </row>
     <row r="13">
@@ -623,13 +623,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1523849344035385</v>
+        <v>0.297147984573271</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8801305997460134</v>
+        <v>0.4173609317113876</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.152468139924976</v>
+        <v>-0.6202011780580573</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8800005671749546</v>
+        <v>-0.547724117437701</v>
       </c>
     </row>
     <row r="15">
@@ -651,13 +651,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1525620816427281</v>
+        <v>-1.124743217505288</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8798537019436837</v>
+        <v>-1.218262727007962</v>
       </c>
     </row>
     <row r="16">
@@ -665,13 +665,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1526137495874917</v>
+        <v>-0.8036710105843229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8797729015151313</v>
+        <v>-0.7762165953044091</v>
       </c>
     </row>
     <row r="17">
@@ -679,13 +679,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1525808699862785</v>
+        <v>1.640409258426288</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8798243219864024</v>
+        <v>1.50801059752597</v>
       </c>
     </row>
     <row r="18">
@@ -693,13 +693,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1523305824096962</v>
+        <v>-0.05668669244166985</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8802155160175842</v>
+        <v>0.07397706517804534</v>
       </c>
     </row>
     <row r="19">
@@ -707,13 +707,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1525043745875376</v>
+        <v>-0.06979168047926021</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8799439259782401</v>
+        <v>0.06065017299360417</v>
       </c>
     </row>
     <row r="20">
@@ -721,13 +721,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1525057166120769</v>
+        <v>-0.06323918646046514</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8799418279916673</v>
+        <v>0.06731948876237934</v>
       </c>
     </row>
     <row r="21">
@@ -735,13 +735,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1525050455998072</v>
+        <v>-1.03956079526095</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8799428769864225</v>
+        <v>-1.094971702688681</v>
       </c>
     </row>
     <row r="22">
@@ -749,13 +749,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1526050264279862</v>
+        <v>-1.177163169655649</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8797865443690065</v>
+        <v>-1.296607109561828</v>
       </c>
     </row>
     <row r="23">
@@ -763,13 +763,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.152619117685649</v>
+        <v>-0.1811840787987788</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8797645056657293</v>
+        <v>-0.05457606422582642</v>
       </c>
     </row>
     <row r="24">
@@ -777,13 +777,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.152517123820661</v>
+        <v>-0.8626434567534798</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8799239946313916</v>
+        <v>-0.8530610010568678</v>
       </c>
     </row>
     <row r="25">
@@ -791,13 +791,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1525869090967054</v>
+        <v>0.2578330204604999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8798148779392653</v>
+        <v>0.3806687304672218</v>
       </c>
     </row>
     <row r="26">
@@ -805,13 +805,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.152472165998594</v>
+        <v>0.09402066999061985</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8799942741315323</v>
+        <v>0.2239753765591325</v>
       </c>
     </row>
     <row r="27">
@@ -819,13 +819,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1524889413053354</v>
+        <v>-1.662047727046494</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8799680519793773</v>
+        <v>-2.140003214010796</v>
       </c>
     </row>
     <row r="28">
@@ -833,13 +833,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1526687725936037</v>
+        <v>-1.164058181618059</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8796868351347538</v>
+        <v>-1.276835614179267</v>
       </c>
     </row>
     <row r="29">
@@ -847,13 +847,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1526177756611097</v>
+        <v>2.151503791892313</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8797666046457246</v>
+        <v>1.860761070604391</v>
       </c>
     </row>
     <row r="30">
@@ -861,13 +861,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.152278243452663</v>
+        <v>0.09402066999061985</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8802972690603346</v>
+        <v>0.2239753765591325</v>
       </c>
     </row>
     <row r="31">
@@ -875,13 +875,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1524889413053354</v>
+        <v>-0.7905660225467326</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8799680519793773</v>
+        <v>-0.7593767882006563</v>
       </c>
     </row>
     <row r="32">
@@ -889,13 +889,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1525795279617392</v>
+        <v>-0.3974163814190203</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8798264206312065</v>
+        <v>-0.2890399724719348</v>
       </c>
     </row>
     <row r="33">
@@ -903,13 +903,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1525392672255598</v>
+        <v>0.2840429965356806</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8798893745082974</v>
+        <v>0.4051680379947964</v>
       </c>
     </row>
     <row r="34">
@@ -917,13 +917,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1524694819495154</v>
+        <v>0.9458448924339961</v>
       </c>
       <c r="D34" t="n">
-        <v>0.879998469505559</v>
+        <v>0.9791585441137007</v>
       </c>
     </row>
     <row r="35">
@@ -931,13 +931,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.15240170971028</v>
+        <v>1.751801656745806</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8801043871335691</v>
+        <v>1.587243826290705</v>
       </c>
     </row>
     <row r="36">
@@ -945,13 +945,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1523191752011121</v>
+        <v>2.767438229659063</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8802333355083676</v>
+        <v>2.253347360169577</v>
       </c>
     </row>
     <row r="37">
@@ -959,13 +959,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1522151682993151</v>
+        <v>0.08746817597182455</v>
       </c>
       <c r="D37" t="n">
-        <v>0.880395768269179</v>
+        <v>0.2175742801466755</v>
       </c>
     </row>
     <row r="38">
@@ -973,13 +973,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1524896123176051</v>
+        <v>-0.2270515369303452</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8799670030551138</v>
+        <v>-0.1030758667001708</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1525218209065486</v>
+        <v>-0.8167759986219134</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8799166512362774</v>
+        <v>-0.7931412136387062</v>
       </c>
     </row>
     <row r="40">
@@ -1001,13 +1001,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1525822120108178</v>
+        <v>-0.1222116326296219</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8798222233298392</v>
+        <v>0.006866725452229411</v>
       </c>
     </row>
     <row r="41">
@@ -1015,13 +1015,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1525110847102341</v>
+        <v>-1.648942739008904</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8799334359278784</v>
+        <v>-2.113562556305443</v>
       </c>
     </row>
     <row r="42">
@@ -1029,13 +1029,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1526674305690643</v>
+        <v>-0.9216159029226366</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8796889345501093</v>
+        <v>-0.9317252666433244</v>
       </c>
     </row>
     <row r="43">
@@ -1043,13 +1043,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1525929482071324</v>
+        <v>-0.482598803663358</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8798054336539969</v>
+        <v>-0.3857327597303861</v>
       </c>
     </row>
     <row r="44">
@@ -1057,27 +1057,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1525479903850653</v>
+        <v>-0.4367313455317916</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8798757353994379</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.1525432932991777</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.8798830795966873</v>
+        <v>-0.3333431842911665</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.550812807966448</v>
+        <v>-0.04104583313932819</v>
       </c>
     </row>
     <row r="3">
@@ -1127,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01473241994537787</v>
+        <v>-0.01066159811616677</v>
       </c>
     </row>
     <row r="4">
@@ -1138,10 +1124,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07339139571413583</v>
+        <v>-0.8853437491860304</v>
       </c>
     </row>
     <row r="5">
@@ -1149,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>1.110648755181085</v>
+        <v>1.04971969260822</v>
       </c>
     </row>
     <row r="6">
@@ -1160,10 +1146,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01203632786835845</v>
+        <v>-0.1501207734082707</v>
       </c>
     </row>
     <row r="7">
@@ -1171,10 +1157,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5554712493137707</v>
+        <v>0.5145350297129043</v>
       </c>
     </row>
     <row r="8">
@@ -1182,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04865810323773635</v>
+        <v>0.2778318246386065</v>
       </c>
     </row>
     <row r="9">
@@ -1193,10 +1179,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.09538265381291072</v>
+        <v>-0.1207804166420637</v>
       </c>
     </row>
     <row r="10">
@@ -1204,10 +1190,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4767564207616353</v>
+        <v>-0.5740226305619989</v>
       </c>
     </row>
     <row r="11">
@@ -1215,10 +1201,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>1.335114960093176</v>
+        <v>0.9393869967056074</v>
       </c>
     </row>
     <row r="12">
@@ -1226,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03181323223540752</v>
+        <v>-0.2932068279687998</v>
       </c>
     </row>
     <row r="13">
@@ -1237,10 +1223,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.534784352200385</v>
+        <v>-1.752564892161922</v>
       </c>
     </row>
     <row r="14">
@@ -1248,10 +1234,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>4.454849767258583</v>
+        <v>6.032951161159415</v>
       </c>
     </row>
     <row r="15">
@@ -1259,10 +1245,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2216830714572272</v>
+        <v>0.6419175233918452</v>
       </c>
     </row>
     <row r="16">
@@ -1270,10 +1256,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.223181869709787</v>
+        <v>-0.6892414925076605</v>
       </c>
     </row>
     <row r="17">
@@ -1281,10 +1267,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09613427669524252</v>
+        <v>-0.2726278050052189</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1278,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>2.466484091291859</v>
+        <v>2.295482585390764</v>
       </c>
     </row>
     <row r="19">
@@ -1303,10 +1289,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06673941260289898</v>
+        <v>0.04224391481155852</v>
       </c>
     </row>
     <row r="20">
@@ -1314,10 +1300,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1566232424985863</v>
+        <v>-0.1951763838394304</v>
       </c>
     </row>
     <row r="21">
@@ -1325,10 +1311,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02330389639014812</v>
+        <v>0.2889646618182786</v>
       </c>
     </row>
     <row r="22">
@@ -1336,10 +1322,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2075024323451875</v>
+        <v>0.1093066947008674</v>
       </c>
     </row>
     <row r="23">
@@ -1347,10 +1333,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1128383232669479</v>
+        <v>-0.1089884959400314</v>
       </c>
     </row>
     <row r="24">
@@ -1358,10 +1344,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1329099038563691</v>
+        <v>0.2625908944681157</v>
       </c>
     </row>
     <row r="25">
@@ -1369,10 +1355,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>1.33898659559582</v>
+        <v>0.8066156639986295</v>
       </c>
     </row>
     <row r="26">
@@ -1380,10 +1366,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4509599581373692</v>
+        <v>-0.5321296985285983</v>
       </c>
     </row>
     <row r="27">
@@ -1391,10 +1377,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2884079240622214</v>
+        <v>0.8555279783597977</v>
       </c>
     </row>
     <row r="28">
@@ -1402,10 +1388,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2847919274224792</v>
+        <v>0.64104515805331</v>
       </c>
     </row>
     <row r="29">
@@ -1413,10 +1399,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.432164643345804</v>
+        <v>-3.46319864046607</v>
       </c>
     </row>
     <row r="30">
@@ -1424,10 +1410,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1896458001684686</v>
+        <v>-0.2861215395386306</v>
       </c>
     </row>
     <row r="31">
@@ -1435,10 +1421,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.3593415112757778</v>
+        <v>-0.1464139412622342</v>
       </c>
     </row>
     <row r="32">
@@ -1446,10 +1432,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7264306321824614</v>
+        <v>0.9808492399931772</v>
       </c>
     </row>
     <row r="33">
@@ -1457,10 +1443,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.09260072722170475</v>
+        <v>-0.2283960546590155</v>
       </c>
     </row>
     <row r="34">
@@ -1468,10 +1454,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6716685701274381</v>
+        <v>0.3087230167104815</v>
       </c>
     </row>
     <row r="35">
@@ -1479,10 +1465,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.146921912349351</v>
+        <v>-1.48178662550329</v>
       </c>
     </row>
     <row r="36">
@@ -1490,10 +1476,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9111472268016214</v>
+        <v>-3.809393489460809</v>
       </c>
     </row>
     <row r="37">
@@ -1501,10 +1487,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.5947307209761681</v>
+        <v>-0.703144150658175</v>
       </c>
     </row>
     <row r="38">
@@ -1512,10 +1498,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.3580764416829891</v>
+        <v>-0.3423328156207752</v>
       </c>
     </row>
     <row r="39">
@@ -1523,10 +1509,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.7492333331482235</v>
+        <v>-0.4504343048110648</v>
       </c>
     </row>
     <row r="40">
@@ -1534,10 +1520,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.244804607274578</v>
+        <v>-0.2492486722134647</v>
       </c>
     </row>
     <row r="41">
@@ -1545,10 +1531,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.000945860778962368</v>
+        <v>0.432793212601206</v>
       </c>
     </row>
     <row r="42">
@@ -1556,10 +1542,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5089259040663368</v>
+        <v>1.333697508930111</v>
       </c>
     </row>
     <row r="43">
@@ -1567,10 +1553,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.06690424791487107</v>
+        <v>0.02400975214281537</v>
       </c>
     </row>
     <row r="44">
@@ -1578,21 +1564,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>0.009881131794485916</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.2229613943808948</v>
+        <v>0.09561378703627015</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +4209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4259,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1697248109938538</v>
+        <v>-7.172701417482724</v>
       </c>
     </row>
     <row r="3">
@@ -4270,10 +4245,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1445499318935562</v>
+        <v>0.1783102714879395</v>
       </c>
     </row>
     <row r="4">
@@ -4281,10 +4256,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1375373453286496</v>
+        <v>-0.2934812839130506</v>
       </c>
     </row>
     <row r="5">
@@ -4292,10 +4267,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4442605474655192</v>
+        <v>0.2663712249657402</v>
       </c>
     </row>
     <row r="6">
@@ -4303,10 +4278,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04342072058969675</v>
+        <v>-0.2465395717206743</v>
       </c>
     </row>
     <row r="7">
@@ -4314,10 +4289,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03260942756207323</v>
+        <v>0.01742143892833035</v>
       </c>
     </row>
     <row r="8">
@@ -4325,10 +4300,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3319822604550627</v>
+        <v>1.574265481504218</v>
       </c>
     </row>
     <row r="9">
@@ -4336,10 +4311,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.05772052840041773</v>
+        <v>-0.08316710267311238</v>
       </c>
     </row>
     <row r="10">
@@ -4347,10 +4322,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5305604144529843</v>
+        <v>0.3367482532422286</v>
       </c>
     </row>
     <row r="11">
@@ -4358,10 +4333,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.09017266182611884</v>
+        <v>-0.3165297428897961</v>
       </c>
     </row>
     <row r="12">
@@ -4369,10 +4344,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2428745421729946</v>
+        <v>-0.176308726391456</v>
       </c>
     </row>
     <row r="13">
@@ -4380,10 +4355,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4425703566764387</v>
+        <v>0.2308634539740722</v>
       </c>
     </row>
     <row r="14">
@@ -4391,10 +4366,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3324191651126939</v>
+        <v>-0.1688426112099278</v>
       </c>
     </row>
     <row r="15">
@@ -4402,10 +4377,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1366345677639348</v>
+        <v>0.1250591615484065</v>
       </c>
     </row>
     <row r="16">
@@ -4413,10 +4388,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5706508462858323</v>
+        <v>2.320170655800683</v>
       </c>
     </row>
     <row r="17">
@@ -4424,10 +4399,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1262238868260245</v>
+        <v>-1.373653161905781</v>
       </c>
     </row>
     <row r="18">
@@ -4435,10 +4410,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.230062203488348</v>
+        <v>-0.2637421547592542</v>
       </c>
     </row>
     <row r="19">
@@ -4446,10 +4421,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2714418035427473</v>
+        <v>-0.3037134268233986</v>
       </c>
     </row>
     <row r="20">
@@ -4457,10 +4432,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1399174372434864</v>
+        <v>0.0754332580105261</v>
       </c>
     </row>
     <row r="21">
@@ -4468,10 +4443,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1233368647762275</v>
+        <v>0.596239522851423</v>
       </c>
     </row>
     <row r="22">
@@ -4479,10 +4454,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2918618938433918</v>
+        <v>-0.001622421228853769</v>
       </c>
     </row>
     <row r="23">
@@ -4490,10 +4465,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007014393992282398</v>
+        <v>0.01352556106048957</v>
       </c>
     </row>
     <row r="24">
@@ -4501,10 +4476,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4692817460855376</v>
+        <v>2.973372333484075</v>
       </c>
     </row>
     <row r="25">
@@ -4512,10 +4487,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2515708716687479</v>
+        <v>-0.6622243392438407</v>
       </c>
     </row>
     <row r="26">
@@ -4523,10 +4498,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01887642521007281</v>
+        <v>-0.01115955930020397</v>
       </c>
     </row>
     <row r="27">
@@ -4534,10 +4509,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2875886395788259</v>
+        <v>0.05293077783266036</v>
       </c>
     </row>
     <row r="28">
@@ -4545,10 +4520,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3062039460175922</v>
+        <v>-0.01759837004509051</v>
       </c>
     </row>
     <row r="29">
@@ -4556,10 +4531,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5408505644711235</v>
+        <v>-0.0648299032653834</v>
       </c>
     </row>
     <row r="30">
@@ -4567,10 +4542,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05603976476159561</v>
+        <v>-0.0001860094920779415</v>
       </c>
     </row>
     <row r="31">
@@ -4578,10 +4553,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5676090107561284</v>
+        <v>2.159518453303472</v>
       </c>
     </row>
     <row r="32">
@@ -4589,10 +4564,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.03164765810689546</v>
+        <v>0.03783782531290553</v>
       </c>
     </row>
     <row r="33">
@@ -4600,10 +4575,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.323960538904134</v>
+        <v>-0.7744148534990483</v>
       </c>
     </row>
     <row r="34">
@@ -4611,10 +4586,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5546894997171123</v>
+        <v>0.05771314068220901</v>
       </c>
     </row>
     <row r="35">
@@ -4622,10 +4597,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1202870199165702</v>
+        <v>-1.285582612889341</v>
       </c>
     </row>
     <row r="36">
@@ -4633,10 +4608,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4037039181539004</v>
+        <v>-0.1196023535765753</v>
       </c>
     </row>
     <row r="37">
@@ -4644,10 +4619,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5601437467492789</v>
+        <v>0.3596877923209447</v>
       </c>
     </row>
     <row r="38">
@@ -4655,10 +4630,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01224272299324099</v>
+        <v>0.005906287103784792</v>
       </c>
     </row>
     <row r="39">
@@ -4666,10 +4641,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2478012274379796</v>
+        <v>1.001521640165208</v>
       </c>
     </row>
     <row r="40">
@@ -4677,10 +4652,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01132995220548361</v>
+        <v>0.005223173159452321</v>
       </c>
     </row>
     <row r="41">
@@ -4688,10 +4663,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0168142225903804</v>
+        <v>0.3029728756634287</v>
       </c>
     </row>
     <row r="42">
@@ -4699,10 +4674,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01486475289820536</v>
+        <v>0.2684050192890502</v>
       </c>
     </row>
     <row r="43">
@@ -4710,10 +4685,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1627603830969305</v>
+        <v>-0.05588336217202998</v>
       </c>
     </row>
     <row r="44">
@@ -4721,21 +4696,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.2515854318507054</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.240026801834036</v>
+        <v>-0.1486342398611802</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4741,7 @@
         <v>2021</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1697248109938538</v>
+        <v>0.7240603724244763</v>
       </c>
     </row>
     <row r="3">
@@ -4788,7 +4752,7 @@
         <v>2020</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1445499318935562</v>
+        <v>-0.05601819442680606</v>
       </c>
     </row>
     <row r="4">
@@ -4799,7 +4763,7 @@
         <v>2019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1375373453286496</v>
+        <v>-0.005163275021737313</v>
       </c>
     </row>
     <row r="5">
@@ -4810,7 +4774,7 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4442605474655192</v>
+        <v>0.00134962664919296</v>
       </c>
     </row>
     <row r="6">
@@ -4821,7 +4785,7 @@
         <v>2017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04342072058969675</v>
+        <v>-0.1204277429964054</v>
       </c>
     </row>
     <row r="7">
@@ -4832,7 +4796,7 @@
         <v>2016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03260942756207323</v>
+        <v>-0.2664607097942766</v>
       </c>
     </row>
     <row r="8">
@@ -4843,7 +4807,7 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3319822604550627</v>
+        <v>0.1363379292381856</v>
       </c>
     </row>
     <row r="9">
@@ -4854,7 +4818,7 @@
         <v>2014</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.05772052840041773</v>
+        <v>0.01437917647907483</v>
       </c>
     </row>
     <row r="10">
@@ -4865,7 +4829,7 @@
         <v>2013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5305604144529843</v>
+        <v>-0.2945591928346459</v>
       </c>
     </row>
     <row r="11">
@@ -4876,7 +4840,7 @@
         <v>2012</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.09017266182611884</v>
+        <v>1.034823485465726</v>
       </c>
     </row>
     <row r="12">
@@ -4887,7 +4851,7 @@
         <v>2011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2428745421729946</v>
+        <v>-0.05350253006440077</v>
       </c>
     </row>
     <row r="13">
@@ -4898,7 +4862,7 @@
         <v>2010</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4425703566764387</v>
+        <v>-0.4052000616814628</v>
       </c>
     </row>
     <row r="14">
@@ -4909,7 +4873,7 @@
         <v>2009</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3324191651126939</v>
+        <v>8.061642170667477</v>
       </c>
     </row>
     <row r="15">
@@ -4920,7 +4884,7 @@
         <v>2008</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1366345677639348</v>
+        <v>1.572134690365059</v>
       </c>
     </row>
     <row r="16">
@@ -4931,7 +4895,7 @@
         <v>2007</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5706508462858323</v>
+        <v>-2.471810585037877</v>
       </c>
     </row>
     <row r="17">
@@ -4942,7 +4906,7 @@
         <v>2006</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1262238868260245</v>
+        <v>0.1128327253791779</v>
       </c>
     </row>
     <row r="18">
@@ -4953,7 +4917,7 @@
         <v>2005</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.230062203488348</v>
+        <v>1.899443601784026</v>
       </c>
     </row>
     <row r="19">
@@ -4964,7 +4928,7 @@
         <v>2004</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2714418035427473</v>
+        <v>0.1422983049814945</v>
       </c>
     </row>
     <row r="20">
@@ -4975,7 +4939,7 @@
         <v>2003</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1399174372434864</v>
+        <v>-0.08556087640528907</v>
       </c>
     </row>
     <row r="21">
@@ -4986,7 +4950,7 @@
         <v>2002</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1233368647762275</v>
+        <v>-0.01809502439629445</v>
       </c>
     </row>
     <row r="22">
@@ -4997,7 +4961,7 @@
         <v>2001</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2918618938433918</v>
+        <v>-0.04928922639444319</v>
       </c>
     </row>
     <row r="23">
@@ -5008,7 +4972,7 @@
         <v>2000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007014393992282398</v>
+        <v>0.3553151015932755</v>
       </c>
     </row>
     <row r="24">
@@ -5019,7 +4983,7 @@
         <v>1999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4692817460855376</v>
+        <v>-0.5453881411525511</v>
       </c>
     </row>
     <row r="25">
@@ -5030,7 +4994,7 @@
         <v>1998</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2515708716687479</v>
+        <v>0.9614907244811129</v>
       </c>
     </row>
     <row r="26">
@@ -5041,7 +5005,7 @@
         <v>1997</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01887642521007281</v>
+        <v>-0.2418602565270397</v>
       </c>
     </row>
     <row r="27">
@@ -5052,7 +5016,7 @@
         <v>1996</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2875886395788259</v>
+        <v>0.2373168017590804</v>
       </c>
     </row>
     <row r="28">
@@ -5063,7 +5027,7 @@
         <v>1995</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3062039460175922</v>
+        <v>0.1488154296155531</v>
       </c>
     </row>
     <row r="29">
@@ -5074,7 +5038,7 @@
         <v>1994</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5408505644711235</v>
+        <v>-3.126546152655125</v>
       </c>
     </row>
     <row r="30">
@@ -5085,7 +5049,7 @@
         <v>1993</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05603976476159561</v>
+        <v>-0.2279664482326582</v>
       </c>
     </row>
     <row r="31">
@@ -5096,7 +5060,7 @@
         <v>1992</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5676090107561284</v>
+        <v>-0.1229208784009724</v>
       </c>
     </row>
     <row r="32">
@@ -5107,7 +5071,7 @@
         <v>1991</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.03164765810689546</v>
+        <v>0.03757757807287894</v>
       </c>
     </row>
     <row r="33">
@@ -5118,7 +5082,7 @@
         <v>1990</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.323960538904134</v>
+        <v>0.03413060627349285</v>
       </c>
     </row>
     <row r="34">
@@ -5129,7 +5093,7 @@
         <v>1989</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5546894997171123</v>
+        <v>0.05394412463210825</v>
       </c>
     </row>
     <row r="35">
@@ -5140,7 +5104,7 @@
         <v>1988</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1202870199165702</v>
+        <v>-0.08964612516469812</v>
       </c>
     </row>
     <row r="36">
@@ -5151,7 +5115,7 @@
         <v>1987</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4037039181539004</v>
+        <v>-0.9867089829618532</v>
       </c>
     </row>
     <row r="37">
@@ -5162,7 +5126,7 @@
         <v>1986</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5601437467492789</v>
+        <v>-1.415316028468297</v>
       </c>
     </row>
     <row r="38">
@@ -5173,7 +5137,7 @@
         <v>1985</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01224272299324099</v>
+        <v>-0.2467683343107274</v>
       </c>
     </row>
     <row r="39">
@@ -5184,7 +5148,7 @@
         <v>1984</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2478012274379796</v>
+        <v>-1.091915583460045</v>
       </c>
     </row>
     <row r="40">
@@ -5195,7 +5159,7 @@
         <v>1983</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01132995220548361</v>
+        <v>-0.0412660706350689</v>
       </c>
     </row>
     <row r="41">
@@ -5206,7 +5170,7 @@
         <v>1982</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0168142225903804</v>
+        <v>-0.05369539085209022</v>
       </c>
     </row>
     <row r="42">
@@ -5217,7 +5181,7 @@
         <v>1981</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01486475289820536</v>
+        <v>0.4528074812289164</v>
       </c>
     </row>
     <row r="43">
@@ -5228,7 +5192,7 @@
         <v>1980</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1627603830969305</v>
+        <v>-0.111609298231487</v>
       </c>
     </row>
     <row r="44">
@@ -5239,7 +5203,7 @@
         <v>1979</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.2515854318507054</v>
+        <v>0.2910184671070625</v>
       </c>
     </row>
     <row r="45">
@@ -5250,7 +5214,7 @@
         <v>1978</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.240026801834036</v>
+        <v>-0.06851282934016899</v>
       </c>
     </row>
   </sheetData>
